--- a/biology/Zoologie/Dynastes_(genre)/Dynastes_(genre).xlsx
+++ b/biology/Zoologie/Dynastes_(genre)/Dynastes_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dynastes est un genre d'insectes coléoptères de la famille des scarabées, de la sous-famille des Dynastinae et de la tribu des Dynastini.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dynastes a été décrit par l'entomologiste britannique William Sharp MacLeay en 1819.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Insectes de grande taille, d'Amérique centrale, dont les mâles portent deux longues cornes thoracique et céphalique formant une pince. 
 </t>
@@ -573,18 +589,20 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces
 Dynastes granti (Horn, 1870). Le dynaste de Grant : Amérique du Nord (sud des États-Unis)
-Dynastes hercules (Linné, 1758)[1]. Le dynaste Hercule : Amérique centrale et Antilles
+Dynastes hercules (Linné, 1758). Le dynaste Hercule : Amérique centrale et Antilles
 Dynastes hyllus (Chevrolat, 1843). Mexique, Belize, Salvador, Honduras, Guatemala, Nicaragua
 Mâle : 35~70mm - Femelle : 30~45mm
-Dynastes maya (Hardy, 2002)[2]. Mexique, Guatemala
+Dynastes maya (Hardy, 2002). Mexique, Guatemala
 Mâle : 50~90mm - Femelle : 40~50mm
-Dynastes miyashitai (Yamaya , 2004)[3]. Mexique
+Dynastes miyashitai (Yamaya , 2004). Mexique
 Mâle : 50~90mm - Femelle : 40~50mm
-Dynastes neptunus (Quensel)[4]. Le dynaste Neptune : Amérique centrale et Antilles
+Dynastes neptunus (Quensel). Le dynaste Neptune : Amérique centrale et Antilles
 Dynastes satanas (Moser, 1909). Le dynaste satanas : Bolivie, Paraguay, Argentine
 Mâle : 50~115mm - Femelle : 30~55mm
 Dynastes tityus (Linné, 1758). Le scarabée licorne : Amérique du Nord (sud des États-Unis)</t>
